--- a/datos/horarios maestros/Horarios BL 2025 versión final.xlsx
+++ b/datos/horarios maestros/Horarios BL 2025 versión final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josuefellmann\techcare_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josuefellmann\techcare_project\datos\horarios maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A99271-4F9A-411A-9D67-47D0C1121C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FDDA1C-A0B4-4AF1-93E0-03ECE7857C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="900" firstSheet="1" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="900" firstSheet="1" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="70" r:id="rId1"/>
@@ -5246,12 +5246,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5266,6 +5260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5661,7 +5661,7 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>58</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -5739,7 +5739,7 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>68</v>
       </c>
@@ -5777,13 +5777,13 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -5792,9 +5792,9 @@
       <c r="B10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="5" t="s">
         <v>115</v>
       </c>
@@ -5806,10 +5806,10 @@
       <c r="B11" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5832,44 +5832,44 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       <c r="C2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5" t="s">
         <v>213</v>
       </c>
@@ -5937,21 +5937,21 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>172</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>213</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="B7" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5" t="s">
         <v>219</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5" t="s">
         <v>179</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="D11" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="5" t="s">
         <v>179</v>
       </c>
@@ -6112,37 +6112,37 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       <c r="D2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5" t="s">
         <v>186</v>
       </c>
@@ -6253,8 +6253,8 @@
       <c r="C5" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
@@ -6266,14 +6266,14 @@
       <c r="B6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -6282,14 +6282,14 @@
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -6315,7 +6315,7 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
@@ -6345,13 +6345,13 @@
       <c r="E10" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>193</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="E11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6384,43 +6384,43 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       <c r="D2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="5" t="s">
         <v>211</v>
       </c>
@@ -6528,14 +6528,14 @@
       <c r="B5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -6544,7 +6544,7 @@
       <c r="B6" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
         <v>203</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="E7" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -6597,15 +6597,15 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -6614,8 +6614,8 @@
       <c r="B10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
         <v>207</v>
       </c>
@@ -6627,9 +6627,9 @@
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
         <v>205</v>
       </c>
@@ -6658,49 +6658,49 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="E5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -6886,11 +6886,11 @@
       <c r="B9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
         <v>144</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="C10" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
         <v>144</v>
       </c>
@@ -6917,13 +6917,13 @@
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6946,30 +6946,30 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>215</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>215</v>
       </c>
@@ -7182,17 +7182,17 @@
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7215,33 +7215,33 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7291,22 +7291,22 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="5" t="s">
         <v>122</v>
       </c>
@@ -7350,7 +7350,7 @@
       <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -7368,7 +7368,7 @@
       <c r="E6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -7417,7 +7417,7 @@
       <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>122</v>
       </c>
@@ -7432,21 +7432,21 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>97</v>
       </c>
@@ -7481,46 +7481,46 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7570,14 +7570,14 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7721,8 +7721,8 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
@@ -7737,8 +7737,8 @@
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
@@ -7770,26 +7770,26 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7853,7 +7853,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7873,7 +7873,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7893,7 +7893,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -7913,29 +7913,29 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7955,34 +7955,34 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8005,84 +8005,84 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8146,7 +8146,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -8166,7 +8166,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -8186,7 +8186,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -8206,7 +8206,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -8215,12 +8215,12 @@
       <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -8240,7 +8240,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -8260,38 +8260,38 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8314,58 +8314,58 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8409,23 +8409,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -8434,14 +8434,14 @@
       <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="9"/>
@@ -8451,14 +8451,14 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="5" t="s">
         <v>190</v>
       </c>
@@ -8467,26 +8467,26 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>216</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="9"/>
@@ -8509,7 +8509,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -8518,7 +8518,7 @@
       <c r="C9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="19" t="s">
         <v>220</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -8529,7 +8529,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -8538,7 +8538,7 @@
       <c r="C10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
@@ -8547,7 +8547,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -8556,8 +8556,8 @@
       <c r="C11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>216</v>
       </c>
@@ -8583,41 +8583,41 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8667,11 +8667,11 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5" t="s">
         <v>69</v>
       </c>
@@ -8723,15 +8723,15 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8745,11 +8745,11 @@
       <c r="C6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -8832,20 +8832,20 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>314</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8868,27 +8868,27 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8935,29 +8935,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -8977,31 +8977,31 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -9010,7 +9010,7 @@
       <c r="C7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="5" t="s">
         <v>53</v>
       </c>
@@ -9019,7 +9019,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9039,10 +9039,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5" t="s">
         <v>178</v>
       </c>
@@ -9057,7 +9057,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -9066,25 +9066,25 @@
       <c r="C10" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9107,84 +9107,84 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9248,7 +9248,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -9268,7 +9268,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -9288,7 +9288,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -9308,7 +9308,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -9328,17 +9328,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9358,36 +9358,36 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9410,67 +9410,67 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9534,7 +9534,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -9554,7 +9554,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -9574,7 +9574,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -9594,7 +9594,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -9614,7 +9614,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="9"/>
@@ -9624,7 +9624,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9644,7 +9644,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -9656,7 +9656,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="9"/>
@@ -9666,7 +9666,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="9"/>
@@ -9696,67 +9696,67 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -9801,23 +9801,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>188</v>
       </c>
@@ -9829,7 +9829,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -9849,28 +9849,28 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="5" t="s">
         <v>51</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -9891,13 +9891,13 @@
       <c r="D7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9917,7 +9917,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -9937,7 +9937,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -9952,12 +9952,12 @@
       <c r="E10" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="19" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -9972,7 +9972,7 @@
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9995,46 +9995,46 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -10050,8 +10050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10081,7 +10081,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -10101,7 +10101,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -10110,14 +10110,14 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -10137,24 +10137,24 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -10169,7 +10169,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -10189,7 +10189,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -10209,7 +10209,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10221,13 +10221,13 @@
       <c r="D9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -10236,7 +10236,7 @@
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
         <v>101</v>
       </c>
@@ -10245,7 +10245,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -10285,32 +10285,32 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -10354,29 +10354,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -10396,39 +10396,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -10448,33 +10448,33 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -10483,11 +10483,11 @@
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -10510,112 +10510,112 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
@@ -10659,7 +10659,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="9"/>
@@ -10669,7 +10669,7 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="3"/>
@@ -10683,7 +10683,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -10703,7 +10703,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="9"/>
@@ -10715,7 +10715,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B6" s="9"/>
@@ -10727,7 +10727,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="9"/>
@@ -10737,7 +10737,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -10757,7 +10757,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10775,7 +10775,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -10787,7 +10787,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="9"/>
@@ -10835,112 +10835,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10950,12 +10950,12 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>275</v>
       </c>
     </row>
@@ -11007,14 +11007,14 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5" t="s">
         <v>80</v>
       </c>
@@ -11066,7 +11066,7 @@
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="5" t="s">
         <v>84</v>
       </c>
@@ -11101,7 +11101,7 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
@@ -11183,11 +11183,11 @@
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -11210,24 +11210,24 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>315</v>
       </c>
     </row>
@@ -11277,14 +11277,14 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -11296,8 +11296,8 @@
       <c r="C3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="5" t="s">
         <v>95</v>
       </c>
@@ -11405,11 +11405,11 @@
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
         <v>121</v>
       </c>
@@ -11418,17 +11418,17 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -11437,8 +11437,8 @@
       <c r="B11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="5" t="s">
         <v>103</v>
       </c>
@@ -11467,35 +11467,35 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -11548,14 +11548,14 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -11564,12 +11564,12 @@
       <c r="B3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -11601,8 +11601,8 @@
       <c r="C5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="5" t="s">
         <v>109</v>
       </c>
@@ -11611,7 +11611,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>107</v>
       </c>
@@ -11629,7 +11629,7 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5" t="s">
         <v>108</v>
       </c>
@@ -11673,7 +11673,7 @@
       <c r="C9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>126</v>
       </c>
@@ -11694,7 +11694,7 @@
       <c r="D10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="5" t="s">
         <v>126</v>
       </c>
@@ -11740,41 +11740,41 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="D2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
@@ -11839,7 +11839,7 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>106</v>
       </c>
@@ -11849,7 +11849,7 @@
       <c r="E3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -11875,7 +11875,7 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>123</v>
       </c>
@@ -11894,7 +11894,7 @@
       <c r="B6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
         <v>123</v>
       </c>
@@ -11913,7 +11913,7 @@
       <c r="C7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="5" t="s">
         <v>125</v>
       </c>
@@ -11945,11 +11945,11 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
@@ -11964,14 +11964,14 @@
       <c r="B10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -11980,7 +11980,7 @@
       <c r="B11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5" t="s">
         <v>129</v>
       </c>
@@ -12012,38 +12012,38 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>309</v>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="5" t="s">
         <v>131</v>
       </c>
@@ -12117,9 +12117,9 @@
       <c r="C3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -12145,7 +12145,7 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
@@ -12181,8 +12181,8 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
@@ -12223,9 +12223,9 @@
       <c r="C9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -12243,7 +12243,7 @@
       <c r="E10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -12286,41 +12286,41 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -12373,11 +12373,11 @@
       <c r="C2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -12386,14 +12386,14 @@
       <c r="B3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -12428,7 +12428,7 @@
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="5" t="s">
         <v>143</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>145</v>
       </c>
@@ -12455,7 +12455,7 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5" t="s">
         <v>150</v>
       </c>
@@ -12505,19 +12505,19 @@
       <c r="E9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
         <v>154</v>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       <c r="E11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -12560,41 +12560,41 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>309</v>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       <c r="B3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>159</v>
       </c>
@@ -12720,10 +12720,10 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="5" t="s">
         <v>156</v>
       </c>
@@ -12735,14 +12735,14 @@
       <c r="B7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -12780,7 +12780,7 @@
       <c r="E9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -12789,8 +12789,8 @@
       <c r="B10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="19" t="s">
         <v>165</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -12810,8 +12810,8 @@
       <c r="C11" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="5" t="s">
         <v>164</v>
       </c>
@@ -12837,43 +12837,43 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>310</v>
       </c>
     </row>
